--- a/biology/Écologie/Forêts_tempérées_de_Richmond/Forêts_tempérées_de_Richmond.xlsx
+++ b/biology/Écologie/Forêts_tempérées_de_Richmond/Forêts_tempérées_de_Richmond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_temp%C3%A9r%C3%A9es_de_Richmond</t>
+          <t>Forêts_tempérées_de_Richmond</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts tempérées de Richmond forment une écorégion définie par le fonds mondial pour la Nature (WWF). Elle couvre l'extrémité nord-est du territoire de l'île du Sud en Nouvelle-Zélande. Elle appartient à l'écozone australasienne et au biome des forêts tempérées décidues et mixtes[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts tempérées de Richmond forment une écorégion définie par le fonds mondial pour la Nature (WWF). Elle couvre l'extrémité nord-est du territoire de l'île du Sud en Nouvelle-Zélande. Elle appartient à l'écozone australasienne et au biome des forêts tempérées décidues et mixtes. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_temp%C3%A9r%C3%A9es_de_Richmond</t>
+          <t>Forêts_tempérées_de_Richmond</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">38 % de la superficie de l'écorégion sont couverts par des aires protégées ; la plus grande est le parc national des lacs Nelson (1 018 km2)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">38 % de la superficie de l'écorégion sont couverts par des aires protégées ; la plus grande est le parc national des lacs Nelson (1 018 km2).
 </t>
         </is>
       </c>
